--- a/EXCEL_TRABAJADO/2023-2cl.xlsx
+++ b/EXCEL_TRABAJADO/2023-2cl.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gians\Desktop\dev\UNDC_AUTOMATIZACION\EXCEL_TRABAJADO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43B397C-9F76-4A77-A0CD-F8C875867503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AF30CF-DAD9-4D4E-90BB-A8C0350405BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$P$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$P$84</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="308">
   <si>
     <t>ASIGNATURA</t>
   </si>
@@ -941,19 +941,13 @@
     <t>https://sivireno.undc.edu.pe/index_home.php?s=asistencia_cursos.php&amp;id_cl=3631</t>
   </si>
   <si>
-    <t>Suma</t>
-  </si>
-  <si>
-    <t>Promedio</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Recuento</t>
-  </si>
-  <si>
     <t xml:space="preserve">GARCIA RUIZ MARIA LUISA	</t>
+  </si>
+  <si>
+    <t>ñique</t>
+  </si>
+  <si>
+    <t>SI</t>
   </si>
 </sst>
 </file>
@@ -984,7 +978,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -994,6 +988,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,7 +1035,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1042,6 +1048,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1347,11 +1358,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P80"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H74" sqref="H74"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,7 +1522,7 @@
       </c>
       <c r="N3" s="7"/>
       <c r="P3" t="str">
-        <f t="shared" ref="P3" si="0">MID(G3,LEN(G3)-3,4)</f>
+        <f t="shared" ref="P3:P66" si="0">MID(G3,LEN(G3)-3,4)</f>
         <v>3575</v>
       </c>
     </row>
@@ -1555,6 +1566,10 @@
       <c r="M4" s="6">
         <v>0.45833333333333331</v>
       </c>
+      <c r="P4" t="str">
+        <f t="shared" si="0"/>
+        <v>3563</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1596,338 +1611,374 @@
       <c r="M5" s="6">
         <v>0.66666666666666663</v>
       </c>
+      <c r="P5" t="str">
+        <f t="shared" si="0"/>
+        <v>3571</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="8" t="s">
         <v>153</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I6" s="4">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4">
-        <v>17</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="I6" s="8">
+        <v>2</v>
+      </c>
+      <c r="J6" s="8">
+        <v>17</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="9">
         <v>0.39583333333333331</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="9">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="0"/>
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="8">
+        <v>2</v>
+      </c>
+      <c r="J7" s="8">
+        <v>17</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="0"/>
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="8">
+        <v>2</v>
+      </c>
+      <c r="J8" s="8">
+        <v>17</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M8" s="9">
         <v>0.52083333333333337</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="P8" t="str">
+        <f t="shared" si="0"/>
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E9" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F9" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G9" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1</v>
-      </c>
-      <c r="J7" s="4">
-        <v>17</v>
-      </c>
-      <c r="K7" s="4" t="s">
+      <c r="H9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="8">
+        <v>2</v>
+      </c>
+      <c r="J9" s="8">
+        <v>17</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="L9" s="9">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="0"/>
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D10" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E10" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F10" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G10" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1</v>
-      </c>
-      <c r="J8" s="4">
-        <v>17</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="H10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="8">
+        <v>3</v>
+      </c>
+      <c r="J10" s="8">
+        <v>17</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L10" s="9">
         <v>0.54166666666666663</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M10" s="9">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="0"/>
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="8">
+        <v>2</v>
+      </c>
+      <c r="J11" s="8">
+        <v>17</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="9">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="M11" s="9">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="0"/>
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B12" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C12" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D12" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E12" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F12" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G12" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="4">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4">
-        <v>17</v>
-      </c>
-      <c r="K9" s="4" t="s">
+      <c r="H12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="8">
+        <v>3</v>
+      </c>
+      <c r="J12" s="8">
+        <v>17</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="0"/>
+        <v>3577</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="8">
+        <v>2</v>
+      </c>
+      <c r="J13" s="8">
+        <v>17</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="6">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="M9" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>165</v>
-      </c>
-      <c r="B10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E10" t="s">
-        <v>157</v>
-      </c>
-      <c r="F10" t="s">
-        <v>166</v>
-      </c>
-      <c r="G10" t="s">
-        <v>167</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I10" s="4">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4">
-        <v>17</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M10" s="6">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>168</v>
-      </c>
-      <c r="B11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D11" t="s">
-        <v>156</v>
-      </c>
-      <c r="E11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F11" t="s">
-        <v>166</v>
-      </c>
-      <c r="G11" t="s">
-        <v>170</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I11" s="4">
-        <v>1</v>
-      </c>
-      <c r="J11" s="4">
-        <v>17</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="L11" s="6">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="M11" s="6">
-        <v>0.52083333333333337</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D12" t="s">
-        <v>160</v>
-      </c>
-      <c r="E12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" t="s">
-        <v>166</v>
-      </c>
-      <c r="G12" t="s">
-        <v>172</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1</v>
-      </c>
-      <c r="J12" s="4">
-        <v>17</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="6">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="M12" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>173</v>
-      </c>
-      <c r="B13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" t="s">
-        <v>163</v>
-      </c>
-      <c r="E13" t="s">
-        <v>174</v>
-      </c>
-      <c r="F13" t="s">
-        <v>166</v>
-      </c>
-      <c r="G13" t="s">
-        <v>175</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1</v>
-      </c>
-      <c r="J13" s="4">
-        <v>17</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="L13" s="6">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="M13" s="6">
+      <c r="L13" s="9">
         <v>0.72916666666666663</v>
+      </c>
+      <c r="M13" s="9">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="0"/>
+        <v>3577</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s">
         <v>137</v>
@@ -1936,16 +1987,16 @@
         <v>138</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="G14" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>105</v>
@@ -1957,36 +2008,40 @@
         <v>17</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="L14" s="6">
         <v>0.33333333333333331</v>
       </c>
       <c r="M14" s="6">
-        <v>0.42708333333333331</v>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="0"/>
+        <v>3565</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s">
         <v>137</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="G15" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>105</v>
@@ -1998,36 +2053,40 @@
         <v>17</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L15" s="6">
-        <v>0.57291666666666663</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="M15" s="6">
-        <v>0.66666666666666663</v>
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="0"/>
+        <v>3570</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s">
         <v>137</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="G16" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>105</v>
@@ -2039,18 +2098,22 @@
         <v>17</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="L16" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="M16" s="6">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="0"/>
+        <v>3573</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s">
         <v>137</v>
@@ -2059,16 +2122,16 @@
         <v>142</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>174</v>
       </c>
       <c r="F17" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="G17" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>105</v>
@@ -2080,24 +2143,28 @@
         <v>17</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L17" s="6">
-        <v>0.54166666666666663</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="M17" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="0"/>
+        <v>3578</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C18" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -2106,36 +2173,40 @@
         <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>306</v>
       </c>
       <c r="G18" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>105</v>
       </c>
       <c r="I18" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" s="4">
         <v>17</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="L18" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="M18" s="6">
         <v>0.45833333333333331</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P18" t="str">
+        <f t="shared" si="0"/>
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="B19" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s">
         <v>142</v>
@@ -2144,13 +2215,13 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
+        <v>306</v>
       </c>
       <c r="G19" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>105</v>
@@ -2162,24 +2233,28 @@
         <v>17</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="L19" s="6">
-        <v>0.54166666666666663</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="M19" s="6">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P19" t="str">
+        <f t="shared" si="0"/>
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B20" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -2188,10 +2263,10 @@
         <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>105</v>
@@ -2206,33 +2281,37 @@
         <v>129</v>
       </c>
       <c r="L20" s="6">
-        <v>0.48958333333333331</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M20" s="6">
-        <v>0.55208333333333337</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="0"/>
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C21" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G21" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>105</v>
@@ -2244,36 +2323,40 @@
         <v>17</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L21" s="6">
-        <v>0.45833333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="M21" s="6">
-        <v>0.52083333333333337</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="0"/>
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s">
         <v>186</v>
       </c>
       <c r="C22" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G22" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>105</v>
@@ -2285,36 +2368,40 @@
         <v>17</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="L22" s="6">
-        <v>0.57291666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M22" s="6">
-        <v>0.69791666666666663</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="0"/>
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B23" t="s">
         <v>186</v>
       </c>
       <c r="C23" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="G23" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>105</v>
@@ -2326,36 +2413,40 @@
         <v>17</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L23" s="6">
-        <v>0.39583333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="M23" s="6">
-        <v>0.52083333333333337</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="0"/>
+        <v>3589</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s">
         <v>186</v>
       </c>
       <c r="C24" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G24" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>105</v>
@@ -2367,18 +2458,22 @@
         <v>17</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="L24" s="6">
-        <v>0.54166666666666663</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="M24" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="0"/>
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B25" t="s">
         <v>186</v>
@@ -2387,16 +2482,16 @@
         <v>155</v>
       </c>
       <c r="D25" t="s">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>157</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="G25" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>105</v>
@@ -2408,36 +2503,40 @@
         <v>17</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="L25" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="M25" s="6">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="0"/>
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B26" t="s">
         <v>186</v>
       </c>
       <c r="C26" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D26" t="s">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="G26" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>105</v>
@@ -2449,36 +2548,40 @@
         <v>17</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L26" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="M26" s="6">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="0"/>
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B27" t="s">
         <v>186</v>
       </c>
       <c r="C27" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D27" t="s">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>207</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G27" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>105</v>
@@ -2490,18 +2593,22 @@
         <v>17</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L27" s="6">
-        <v>0.54166666666666663</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="M27" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="0"/>
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B28" t="s">
         <v>186</v>
@@ -2510,16 +2617,16 @@
         <v>142</v>
       </c>
       <c r="D28" t="s">
-        <v>163</v>
+        <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="F28" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G28" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>105</v>
@@ -2531,7 +2638,7 @@
         <v>17</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="L28" s="6">
         <v>0.54166666666666663</v>
@@ -2539,10 +2646,14 @@
       <c r="M28" s="6">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P28" t="str">
+        <f t="shared" si="0"/>
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B29" t="s">
         <v>186</v>
@@ -2551,16 +2662,16 @@
         <v>155</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="F29" t="s">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="G29" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>105</v>
@@ -2572,7 +2683,7 @@
         <v>17</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="L29" s="6">
         <v>0.33333333333333331</v>
@@ -2580,28 +2691,32 @@
       <c r="M29" s="6">
         <v>0.45833333333333331</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P29" t="str">
+        <f t="shared" si="0"/>
+        <v>3579</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B30" t="s">
         <v>186</v>
       </c>
       <c r="C30" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="F30" t="s">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="G30" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>105</v>
@@ -2613,36 +2728,40 @@
         <v>17</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L30" s="6">
-        <v>0.54166666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M30" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="0"/>
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B31" t="s">
         <v>186</v>
       </c>
       <c r="C31" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="F31" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="G31" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>105</v>
@@ -2654,18 +2773,22 @@
         <v>17</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="L31" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="M31" s="6">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="0"/>
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B32" t="s">
         <v>186</v>
@@ -2674,16 +2797,16 @@
         <v>142</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="F32" t="s">
-        <v>125</v>
+        <v>202</v>
       </c>
       <c r="G32" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>105</v>
@@ -2695,21 +2818,25 @@
         <v>17</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="L32" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="M32" s="6">
         <v>0.66666666666666663</v>
       </c>
-      <c r="M32" s="6">
-        <v>0.79166666666666663</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P32" t="str">
+        <f t="shared" si="0"/>
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="C33" t="s">
         <v>155</v>
@@ -2718,13 +2845,13 @@
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>192</v>
+        <v>114</v>
       </c>
       <c r="G33" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>105</v>
@@ -2736,21 +2863,25 @@
         <v>17</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L33" s="6">
         <v>0.33333333333333331</v>
       </c>
       <c r="M33" s="6">
-        <v>0.48958333333333331</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="0"/>
+        <v>3583</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="C34" t="s">
         <v>142</v>
@@ -2759,13 +2890,13 @@
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="F34" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G34" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>105</v>
@@ -2777,21 +2908,25 @@
         <v>17</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="L34" s="6">
         <v>0.54166666666666663</v>
       </c>
       <c r="M34" s="6">
-        <v>0.69791666666666663</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="0"/>
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="C35" t="s">
         <v>155</v>
@@ -2800,13 +2935,13 @@
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="G35" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>105</v>
@@ -2818,21 +2953,25 @@
         <v>17</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L35" s="6">
         <v>0.33333333333333331</v>
       </c>
       <c r="M35" s="6">
-        <v>0.42708333333333331</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="0"/>
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="C36" t="s">
         <v>142</v>
@@ -2841,13 +2980,13 @@
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F36" t="s">
         <v>125</v>
       </c>
       <c r="G36" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>105</v>
@@ -2859,18 +2998,22 @@
         <v>17</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="L36" s="6">
-        <v>0.60416666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M36" s="6">
-        <v>0.69791666666666663</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="0"/>
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B37" t="s">
         <v>91</v>
@@ -2882,13 +3025,13 @@
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>112</v>
+        <v>192</v>
       </c>
       <c r="G37" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>105</v>
@@ -2899,8 +3042,8 @@
       <c r="J37" s="4">
         <v>17</v>
       </c>
-      <c r="K37" s="6" t="s">
-        <v>20</v>
+      <c r="K37" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="L37" s="6">
         <v>0.33333333333333331</v>
@@ -2908,10 +3051,14 @@
       <c r="M37" s="6">
         <v>0.48958333333333331</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P37" t="str">
+        <f t="shared" si="0"/>
+        <v>3594</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B38" t="s">
         <v>91</v>
@@ -2923,13 +3070,13 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="F38" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G38" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>105</v>
@@ -2944,33 +3091,37 @@
         <v>20</v>
       </c>
       <c r="L38" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="M38" s="6">
         <v>0.69791666666666663</v>
       </c>
-      <c r="M38" s="6">
-        <v>0.79166666666666663</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P38" t="str">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B39" t="s">
         <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="F39" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="G39" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>105</v>
@@ -2985,33 +3136,37 @@
         <v>128</v>
       </c>
       <c r="L39" s="6">
-        <v>0.54166666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M39" s="6">
-        <v>0.60416666666666663</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="P39" t="str">
+        <f t="shared" si="0"/>
+        <v>3595</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B40" t="s">
         <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G40" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>105</v>
@@ -3023,36 +3178,40 @@
         <v>17</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L40" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="M40" s="6">
-        <v>0.48958333333333331</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="P40" t="str">
+        <f t="shared" si="0"/>
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B41" t="s">
         <v>91</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>235</v>
+        <v>87</v>
       </c>
       <c r="F41" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="G41" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>105</v>
@@ -3063,37 +3222,41 @@
       <c r="J41" s="4">
         <v>17</v>
       </c>
-      <c r="K41" s="4" t="s">
-        <v>127</v>
+      <c r="K41" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="L41" s="6">
-        <v>0.57291666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M41" s="6">
-        <v>0.72916666666666663</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="0"/>
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B42" t="s">
         <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="G42" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>105</v>
@@ -3105,18 +3268,22 @@
         <v>17</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L42" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="M42" s="6">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="0"/>
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B43" t="s">
         <v>91</v>
@@ -3128,13 +3295,13 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="G43" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>105</v>
@@ -3146,18 +3313,22 @@
         <v>17</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="L43" s="6">
         <v>0.54166666666666663</v>
       </c>
       <c r="M43" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="0"/>
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B44" t="s">
         <v>91</v>
@@ -3169,13 +3340,13 @@
         <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>242</v>
+        <v>67</v>
       </c>
       <c r="F44" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="G44" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>105</v>
@@ -3187,18 +3358,22 @@
         <v>17</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="L44" s="6">
         <v>0.33333333333333331</v>
       </c>
       <c r="M44" s="6">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="0"/>
+        <v>3597</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B45" t="s">
         <v>91</v>
@@ -3210,13 +3385,13 @@
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="F45" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="G45" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>105</v>
@@ -3228,36 +3403,40 @@
         <v>17</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L45" s="6">
-        <v>0.54166666666666663</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="M45" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="0"/>
+        <v>3603</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="F46" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="G46" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>105</v>
@@ -3269,36 +3448,40 @@
         <v>17</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="L46" s="6">
-        <v>0.54166666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M46" s="6">
-        <v>0.69791666666666663</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="0"/>
+        <v>3598</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
         <v>142</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="F47" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="G47" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>105</v>
@@ -3310,36 +3493,40 @@
         <v>17</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L47" s="6">
-        <v>0.69791666666666663</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="M47" s="6">
-        <v>0.76041666666666663</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="0"/>
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>94</v>
+        <v>242</v>
       </c>
       <c r="F48" t="s">
-        <v>187</v>
+        <v>110</v>
       </c>
       <c r="G48" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>105</v>
@@ -3351,36 +3538,40 @@
         <v>17</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L48" s="6">
-        <v>0.63541666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M48" s="6">
-        <v>0.79166666666666663</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="P48" t="str">
+        <f t="shared" si="0"/>
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="C49" t="s">
         <v>142</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="G49" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>105</v>
@@ -3392,18 +3583,22 @@
         <v>17</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L49" s="6">
         <v>0.54166666666666663</v>
       </c>
       <c r="M49" s="6">
-        <v>0.69791666666666663</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P49" t="str">
+        <f t="shared" si="0"/>
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
@@ -3415,13 +3610,13 @@
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>94</v>
+        <v>247</v>
       </c>
       <c r="F50" t="s">
-        <v>254</v>
+        <v>122</v>
       </c>
       <c r="G50" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>105</v>
@@ -3433,18 +3628,22 @@
         <v>17</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="L50" s="6">
         <v>0.54166666666666663</v>
       </c>
       <c r="M50" s="6">
-        <v>0.60416666666666663</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="P50" t="str">
+        <f t="shared" si="0"/>
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
@@ -3456,13 +3655,13 @@
         <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>94</v>
+        <v>247</v>
       </c>
       <c r="F51" t="s">
-        <v>254</v>
+        <v>122</v>
       </c>
       <c r="G51" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>105</v>
@@ -3474,18 +3673,22 @@
         <v>17</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L51" s="6">
-        <v>0.54166666666666663</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="M51" s="6">
-        <v>0.63541666666666663</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="P51" t="str">
+        <f t="shared" si="0"/>
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
@@ -3500,10 +3703,10 @@
         <v>94</v>
       </c>
       <c r="F52" t="s">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="G52" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>105</v>
@@ -3515,18 +3718,22 @@
         <v>17</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L52" s="6">
-        <v>0.54166666666666663</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="M52" s="6">
-        <v>0.69791666666666663</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="P52" t="str">
+        <f t="shared" si="0"/>
+        <v>3606</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -3538,13 +3745,13 @@
         <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>126</v>
+        <v>197</v>
       </c>
       <c r="G53" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>105</v>
@@ -3556,18 +3763,22 @@
         <v>17</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="L53" s="6">
-        <v>0.60416666666666663</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="M53" s="6">
-        <v>0.76041666666666663</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="P53" t="str">
+        <f t="shared" si="0"/>
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
@@ -3576,16 +3787,16 @@
         <v>142</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="F54" t="s">
-        <v>192</v>
+        <v>254</v>
       </c>
       <c r="G54" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>105</v>
@@ -3597,18 +3808,22 @@
         <v>17</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="L54" s="6">
-        <v>0.69791666666666663</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="M54" s="6">
-        <v>0.79166666666666663</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="P54" t="str">
+        <f t="shared" si="0"/>
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
@@ -3617,16 +3832,16 @@
         <v>142</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="F55" t="s">
-        <v>192</v>
+        <v>254</v>
       </c>
       <c r="G55" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>105</v>
@@ -3638,36 +3853,40 @@
         <v>17</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="L55" s="6">
-        <v>0.69791666666666663</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="M55" s="6">
-        <v>0.76041666666666663</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="P55" t="str">
+        <f t="shared" si="0"/>
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B56" t="s">
-        <v>263</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>142</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="F56" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="G56" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>105</v>
@@ -3679,36 +3898,40 @@
         <v>17</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="L56" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="M56" s="6">
         <v>0.69791666666666663</v>
       </c>
-      <c r="M56" s="6">
-        <v>0.85416666666666663</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P56" t="str">
+        <f t="shared" si="0"/>
+        <v>3609</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B57" t="s">
-        <v>263</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>142</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F57" t="s">
-        <v>254</v>
+        <v>126</v>
       </c>
       <c r="G57" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>105</v>
@@ -3720,21 +3943,25 @@
         <v>17</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L57" s="6">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="M57" s="6">
         <v>0.76041666666666663</v>
       </c>
-      <c r="M57" s="6">
-        <v>0.91666666666666663</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P57" t="str">
+        <f t="shared" si="0"/>
+        <v>3610</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B58" t="s">
-        <v>263</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>142</v>
@@ -3743,13 +3970,13 @@
         <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="G58" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>105</v>
@@ -3761,21 +3988,25 @@
         <v>17</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="L58" s="6">
-        <v>0.66666666666666663</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="M58" s="6">
-        <v>0.82291666666666663</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="P58" t="str">
+        <f t="shared" si="0"/>
+        <v>3611</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B59" t="s">
-        <v>263</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>142</v>
@@ -3784,13 +4015,13 @@
         <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="G59" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>105</v>
@@ -3802,18 +4033,22 @@
         <v>17</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="L59" s="6">
-        <v>0.66666666666666663</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="M59" s="6">
         <v>0.76041666666666663</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P59" t="str">
+        <f t="shared" si="0"/>
+        <v>3611</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B60" t="s">
         <v>263</v>
@@ -3825,13 +4060,13 @@
         <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="F60" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="G60" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>105</v>
@@ -3846,15 +4081,19 @@
         <v>129</v>
       </c>
       <c r="L60" s="6">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="M60" s="6">
         <v>0.85416666666666663</v>
       </c>
-      <c r="M60" s="6">
-        <v>0.91666666666666663</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P60" t="str">
+        <f t="shared" si="0"/>
+        <v>3612</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B61" t="s">
         <v>263</v>
@@ -3866,13 +4105,13 @@
         <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="F61" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="G61" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>105</v>
@@ -3884,18 +4123,22 @@
         <v>17</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L61" s="6">
-        <v>0.79166666666666663</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="M61" s="6">
-        <v>0.88541666666666663</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="P61" t="str">
+        <f t="shared" si="0"/>
+        <v>3613</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B62" t="s">
         <v>263</v>
@@ -3910,10 +4153,10 @@
         <v>24</v>
       </c>
       <c r="F62" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="G62" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>105</v>
@@ -3925,18 +4168,22 @@
         <v>17</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="L62" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M62" s="6">
         <v>0.82291666666666663</v>
       </c>
-      <c r="M62" s="6">
-        <v>0.88541666666666663</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P62" t="str">
+        <f t="shared" si="0"/>
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B63" t="s">
         <v>263</v>
@@ -3948,13 +4195,13 @@
         <v>8</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G63" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>105</v>
@@ -3966,144 +4213,160 @@
         <v>17</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="L63" s="6">
         <v>0.66666666666666663</v>
       </c>
       <c r="M63" s="6">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="P63" t="str">
+        <f t="shared" si="0"/>
+        <v>3617</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>269</v>
+      </c>
+      <c r="B64" t="s">
+        <v>263</v>
+      </c>
+      <c r="C64" t="s">
+        <v>142</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>37</v>
+      </c>
+      <c r="F64" t="s">
+        <v>121</v>
+      </c>
+      <c r="G64" t="s">
+        <v>270</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I64" s="4">
+        <v>1</v>
+      </c>
+      <c r="J64" s="4">
+        <v>17</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L64" s="6">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="M64" s="6">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="P64" t="str">
+        <f t="shared" si="0"/>
+        <v>3617</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="I65" s="11">
+        <v>2</v>
+      </c>
+      <c r="J65" s="11">
+        <v>17</v>
+      </c>
+      <c r="K65" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L65" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="M65" s="12">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="P65" t="str">
+        <f t="shared" si="0"/>
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I66" s="11">
+        <v>1</v>
+      </c>
+      <c r="J66" s="11">
+        <v>17</v>
+      </c>
+      <c r="K66" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L66" s="12">
         <v>0.82291666666666663</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>275</v>
-      </c>
-      <c r="B64" t="s">
-        <v>276</v>
-      </c>
-      <c r="C64" t="s">
-        <v>138</v>
-      </c>
-      <c r="D64" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" t="s">
-        <v>67</v>
-      </c>
-      <c r="F64" t="s">
-        <v>120</v>
-      </c>
-      <c r="G64" t="s">
-        <v>277</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I64" s="4">
-        <v>1</v>
-      </c>
-      <c r="J64" s="4">
-        <v>17</v>
-      </c>
-      <c r="K64" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L64" s="6">
-        <v>0.36458333333333331</v>
-      </c>
-      <c r="M64" s="6">
-        <v>0.52083333333333337</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>278</v>
-      </c>
-      <c r="B65" t="s">
-        <v>276</v>
-      </c>
-      <c r="C65" t="s">
-        <v>142</v>
-      </c>
-      <c r="D65" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" t="s">
-        <v>37</v>
-      </c>
-      <c r="F65" t="s">
-        <v>120</v>
-      </c>
-      <c r="G65" t="s">
-        <v>279</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I65" s="4">
-        <v>1</v>
-      </c>
-      <c r="J65" s="4">
-        <v>17</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L65" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M65" s="6">
-        <v>0.82291666666666663</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>280</v>
-      </c>
-      <c r="B66" t="s">
-        <v>276</v>
-      </c>
-      <c r="C66" t="s">
-        <v>138</v>
-      </c>
-      <c r="D66" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66" t="s">
-        <v>85</v>
-      </c>
-      <c r="F66" t="s">
-        <v>281</v>
-      </c>
-      <c r="G66" t="s">
-        <v>282</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I66" s="4">
-        <v>1</v>
-      </c>
-      <c r="J66" s="4">
-        <v>17</v>
-      </c>
-      <c r="K66" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="L66" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M66" s="6">
-        <v>0.48958333333333331</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M66" s="12">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="P66" t="str">
+        <f t="shared" si="0"/>
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B67" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C67" t="s">
         <v>142</v>
@@ -4112,13 +4375,13 @@
         <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G67" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>105</v>
@@ -4133,15 +4396,19 @@
         <v>128</v>
       </c>
       <c r="L67" s="6">
-        <v>0.76041666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M67" s="6">
-        <v>0.91666666666666663</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="P67" t="str">
+        <f t="shared" ref="P67:P84" si="1">MID(G67,LEN(G67)-3,4)</f>
+        <v>3616</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B68" t="s">
         <v>276</v>
@@ -4153,13 +4420,13 @@
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>169</v>
+        <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G68" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>105</v>
@@ -4171,18 +4438,22 @@
         <v>17</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L68" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M68" s="2">
-        <v>0.48958333333333331</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="L68" s="6">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="M68" s="6">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="P68" t="str">
+        <f t="shared" si="1"/>
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B69" t="s">
         <v>276</v>
@@ -4194,13 +4465,13 @@
         <v>8</v>
       </c>
       <c r="E69" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G69" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>105</v>
@@ -4212,36 +4483,40 @@
         <v>17</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L69" s="6">
-        <v>0.79166666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M69" s="6">
-        <v>0.85416666666666663</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="P69" t="str">
+        <f t="shared" si="1"/>
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B70" t="s">
         <v>276</v>
       </c>
       <c r="C70" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="F70" t="s">
-        <v>121</v>
+        <v>281</v>
       </c>
       <c r="G70" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>105</v>
@@ -4253,36 +4528,40 @@
         <v>17</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L70" s="6">
-        <v>0.82291666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M70" s="6">
-        <v>0.91666666666666663</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="P70" t="str">
+        <f t="shared" si="1"/>
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B71" t="s">
         <v>276</v>
       </c>
       <c r="C71" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E71" t="s">
-        <v>222</v>
+        <v>42</v>
       </c>
       <c r="F71" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G71" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>105</v>
@@ -4294,18 +4573,22 @@
         <v>17</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="L71" s="6">
-        <v>0.48958333333333331</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="M71" s="6">
-        <v>0.55208333333333337</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="P71" t="str">
+        <f t="shared" si="1"/>
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B72" t="s">
         <v>276</v>
@@ -4317,13 +4600,13 @@
         <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="F72" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G72" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>105</v>
@@ -4335,18 +4618,22 @@
         <v>17</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="L72" s="6">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="M72" s="6">
-        <v>0.55208333333333337</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="L72" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M72" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="P72" t="str">
+        <f t="shared" si="1"/>
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B73" t="s">
         <v>276</v>
@@ -4358,13 +4645,13 @@
         <v>8</v>
       </c>
       <c r="E73" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F73" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G73" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>105</v>
@@ -4376,36 +4663,40 @@
         <v>17</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="L73" s="6">
-        <v>0.66666666666666663</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M73" s="6">
-        <v>0.82291666666666663</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="P73" t="str">
+        <f t="shared" si="1"/>
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B74" t="s">
         <v>276</v>
       </c>
       <c r="C74" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E74" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F74" t="s">
-        <v>281</v>
+        <v>121</v>
       </c>
       <c r="G74" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>105</v>
@@ -4417,36 +4708,40 @@
         <v>17</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L74" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.82291666666666663</v>
       </c>
       <c r="M74" s="6">
-        <v>0.48958333333333331</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="P74" t="str">
+        <f t="shared" si="1"/>
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B75" t="s">
         <v>276</v>
       </c>
       <c r="C75" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>54</v>
+        <v>222</v>
       </c>
       <c r="F75" t="s">
-        <v>281</v>
+        <v>111</v>
       </c>
       <c r="G75" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H75" s="4" t="s">
         <v>105</v>
@@ -4458,18 +4753,22 @@
         <v>17</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="L75" s="6">
-        <v>0.66666666666666663</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="M75" s="6">
-        <v>0.82291666666666663</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="P75" t="str">
+        <f t="shared" si="1"/>
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B76" t="s">
         <v>276</v>
@@ -4481,13 +4780,13 @@
         <v>7</v>
       </c>
       <c r="E76" t="s">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="F76" t="s">
-        <v>309</v>
+        <v>111</v>
       </c>
       <c r="G76" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>105</v>
@@ -4499,18 +4798,22 @@
         <v>17</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="L76" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="M76" s="6">
-        <v>0.48958333333333331</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="P76" t="str">
+        <f t="shared" si="1"/>
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B77" t="s">
         <v>276</v>
@@ -4528,7 +4831,7 @@
         <v>111</v>
       </c>
       <c r="G77" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>105</v>
@@ -4540,7 +4843,7 @@
         <v>17</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="L77" s="6">
         <v>0.66666666666666663</v>
@@ -4548,10 +4851,14 @@
       <c r="M77" s="6">
         <v>0.82291666666666663</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P77" t="str">
+        <f t="shared" si="1"/>
+        <v>3627</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B78" t="s">
         <v>276</v>
@@ -4563,13 +4870,13 @@
         <v>7</v>
       </c>
       <c r="E78" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>106</v>
+        <v>281</v>
       </c>
       <c r="G78" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>105</v>
@@ -4581,18 +4888,22 @@
         <v>17</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L78" s="6">
         <v>0.33333333333333331</v>
       </c>
       <c r="M78" s="6">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="P78" t="str">
+        <f t="shared" si="1"/>
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B79" t="s">
         <v>276</v>
@@ -4604,13 +4915,13 @@
         <v>8</v>
       </c>
       <c r="E79" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F79" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="G79" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>105</v>
@@ -4622,36 +4933,40 @@
         <v>17</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="L79" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M79" s="6">
         <v>0.82291666666666663</v>
       </c>
-      <c r="M79" s="6">
-        <v>0.88541666666666663</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P79" t="str">
+        <f t="shared" si="1"/>
+        <v>3629</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B80" t="s">
         <v>276</v>
       </c>
       <c r="C80" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E80" t="s">
         <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>187</v>
+        <v>305</v>
       </c>
       <c r="G80" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>105</v>
@@ -4666,20 +4981,205 @@
         <v>20</v>
       </c>
       <c r="L80" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M80" s="6">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="P80" t="str">
+        <f t="shared" si="1"/>
+        <v>3623</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>299</v>
+      </c>
+      <c r="B81" t="s">
+        <v>276</v>
+      </c>
+      <c r="C81" t="s">
+        <v>142</v>
+      </c>
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" t="s">
+        <v>49</v>
+      </c>
+      <c r="F81" t="s">
+        <v>111</v>
+      </c>
+      <c r="G81" t="s">
+        <v>300</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I81" s="4">
+        <v>1</v>
+      </c>
+      <c r="J81" s="4">
+        <v>17</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L81" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M81" s="6">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="P81" t="str">
+        <f t="shared" si="1"/>
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>301</v>
+      </c>
+      <c r="B82" t="s">
+        <v>276</v>
+      </c>
+      <c r="C82" t="s">
+        <v>138</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" t="s">
+        <v>89</v>
+      </c>
+      <c r="F82" t="s">
+        <v>106</v>
+      </c>
+      <c r="G82" t="s">
+        <v>302</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I82" s="4">
+        <v>1</v>
+      </c>
+      <c r="J82" s="4">
+        <v>17</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L82" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M82" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="P82" t="str">
+        <f t="shared" si="1"/>
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>303</v>
+      </c>
+      <c r="B83" t="s">
+        <v>276</v>
+      </c>
+      <c r="C83" t="s">
+        <v>142</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" t="s">
+        <v>45</v>
+      </c>
+      <c r="F83" t="s">
+        <v>187</v>
+      </c>
+      <c r="G83" t="s">
+        <v>304</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I83" s="4">
+        <v>1</v>
+      </c>
+      <c r="J83" s="4">
+        <v>17</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L83" s="6">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="M83" s="6">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="1"/>
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>303</v>
+      </c>
+      <c r="B84" t="s">
+        <v>276</v>
+      </c>
+      <c r="C84" t="s">
+        <v>142</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" t="s">
+        <v>45</v>
+      </c>
+      <c r="F84" t="s">
+        <v>187</v>
+      </c>
+      <c r="G84" t="s">
+        <v>304</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I84" s="4">
+        <v>1</v>
+      </c>
+      <c r="J84" s="4">
+        <v>17</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L84" s="6">
         <v>0.85416666666666663</v>
       </c>
-      <c r="M80" s="6">
+      <c r="M84" s="6">
         <v>0.91666666666666663</v>
       </c>
+      <c r="P84" t="str">
+        <f t="shared" si="1"/>
+        <v>3631</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P80" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:P84" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_cursos.php&amp;id_cl=3178" xr:uid="{594FE9B5-478D-4986-BFAF-4568FD5C984D}"/>
     <hyperlink ref="G2" r:id="rId2" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_cursos.php&amp;id_cl=3172" xr:uid="{7E2AC5DC-0229-4DF5-A48F-BACE364E00BA}"/>
+    <hyperlink ref="G13" r:id="rId3" xr:uid="{B6836613-C5B7-442B-B398-E94C37E05A75}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
